--- a/dailymeeting.xlsx
+++ b/dailymeeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1098A9-D9B6-445E-AE1A-949912C83C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E473C5-7BDA-488E-A42F-8EB53546C1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>S.NO</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Tally Project</t>
+  </si>
+  <si>
+    <t>11.15AM-11.40AM</t>
+  </si>
+  <si>
+    <t>Tally  installation</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <dimension ref="A1:CP924"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,9 +702,24 @@
       <c r="CP3" s="4"/>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45468</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>

--- a/dailymeeting.xlsx
+++ b/dailymeeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E473C5-7BDA-488E-A42F-8EB53546C1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE8454-0137-4E33-BB0B-B6A26AD0C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>11.15AM-11.40AM</t>
   </si>
   <si>
-    <t>Tally  installation</t>
+    <t>Tally  installation , email ettiques , vouchers</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP924"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dailymeeting.xlsx
+++ b/dailymeeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE8454-0137-4E33-BB0B-B6A26AD0C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC63A2-C300-4AC2-9ADD-FE18052C5DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>S.NO</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Tally  installation , email ettiques , vouchers</t>
+  </si>
+  <si>
+    <t>11.45AM-11.55AM</t>
+  </si>
+  <si>
+    <t>Abiout project view page</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +156,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP924"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,9 +817,24 @@
       <c r="CP4" s="4"/>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45469</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>

--- a/dailymeeting.xlsx
+++ b/dailymeeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC63A2-C300-4AC2-9ADD-FE18052C5DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD7A24-2196-421F-A259-5A66E5AD4E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>S.NO</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Abiout project view page</t>
+  </si>
+  <si>
+    <t>1.30AM-11.35AM</t>
+  </si>
+  <si>
+    <t>About daily report o the time</t>
+  </si>
+  <si>
+    <t>Daily Report</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,8 +934,24 @@
       <c r="CP5" s="4"/>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45470</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>

--- a/dailymeeting.xlsx
+++ b/dailymeeting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD7A24-2196-421F-A259-5A66E5AD4E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C10F56B-C8D4-4A4C-A73B-6A8FC213DA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>S.NO</t>
   </si>
@@ -78,13 +78,22 @@
     <t>Abiout project view page</t>
   </si>
   <si>
-    <t>1.30AM-11.35AM</t>
-  </si>
-  <si>
     <t>About daily report o the time</t>
   </si>
   <si>
     <t>Daily Report</t>
+  </si>
+  <si>
+    <t>11.30AM-11.35AM</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>About project</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -454,7 +463,7 @@
   <dimension ref="A1:CP924"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,13 +950,13 @@
         <v>45470</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -1042,8 +1051,24 @@
       <c r="CP6" s="4"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45471</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
